--- a/2019-2-28-020910+07496_mpii-.35-.5-.5-.4.xlsx
+++ b/2019-2-28-020910+07496_mpii-.35-.5-.5-.4.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\_\D\posetrack\nise_embedding\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E154F3F-1E04-4741-AD1C-23788A78D310}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="25600" windowHeight="11100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65">
   <si>
     <t xml:space="preserve">num_misses: </t>
   </si>
@@ -43,172 +37,13 @@
     <t>MOTA-左右分别</t>
   </si>
   <si>
-    <t>Joint</t>
-  </si>
-  <si>
-    <t>right_ankle</t>
-  </si>
-  <si>
-    <t>right_knee</t>
-  </si>
-  <si>
-    <t>right_hip</t>
-  </si>
-  <si>
-    <t>left_hip</t>
-  </si>
-  <si>
-    <t>left_knee</t>
-  </si>
-  <si>
-    <t>left_ankle</t>
-  </si>
-  <si>
-    <t>right_wrist</t>
-  </si>
-  <si>
-    <t>right_elbow</t>
-  </si>
-  <si>
-    <t>right_shoulder</t>
-  </si>
-  <si>
-    <t>left_shoulder</t>
-  </si>
-  <si>
-    <t>left_elbow</t>
-  </si>
-  <si>
-    <t>left_wrist</t>
-  </si>
-  <si>
-    <t>neck</t>
-  </si>
-  <si>
-    <t>nose</t>
-  </si>
-  <si>
-    <t>head_top</t>
-  </si>
-  <si>
-    <t>MOTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MOTA</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MOTP</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prec</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rec  </t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shou</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elb </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wri </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Knee</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ankl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Total</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> right_ankle </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> right_knee </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> right_hip </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> left_hip </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> left_knee </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> left_ankle </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> right_wrist </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> right_elbow </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> right_shoulder </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> left_shoulder </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> left_elbow </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> left_wrist </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> neck </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nose </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> head_top </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MOTA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MOTP </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Prec </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Head </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Shou </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elb  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Wri  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Knee </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ankl </t>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
       <t>m</t>
     </r>
     <r>
@@ -216,28 +51,194 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>atched?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>my obj</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>mathced</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Joint</t>
+  </si>
+  <si>
+    <t>right_ankle</t>
+  </si>
+  <si>
+    <t>right_knee</t>
+  </si>
+  <si>
+    <t>right_hip</t>
+  </si>
+  <si>
+    <t>left_hip</t>
+  </si>
+  <si>
+    <t>left_knee</t>
+  </si>
+  <si>
+    <t>left_ankle</t>
+  </si>
+  <si>
+    <t>right_wrist</t>
+  </si>
+  <si>
+    <t>right_elbow</t>
+  </si>
+  <si>
+    <t>right_shoulder</t>
+  </si>
+  <si>
+    <t>left_shoulder</t>
+  </si>
+  <si>
+    <t>left_elbow</t>
+  </si>
+  <si>
+    <t>left_wrist</t>
+  </si>
+  <si>
+    <t>neck</t>
+  </si>
+  <si>
+    <t>nose</t>
+  </si>
+  <si>
+    <t>head_top</t>
+  </si>
+  <si>
+    <t>MOTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MOTA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MOTP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rec  </t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shou</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elb </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wri </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Knee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ankl</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Total</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> right_ankle </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> right_knee </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> right_hip </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> left_hip </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> left_knee </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> left_ankle </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> right_wrist </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> right_elbow </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> right_shoulder </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> left_shoulder </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> left_elbow </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> left_wrist </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> neck </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nose </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> head_top </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MOTA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MOTP </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Prec </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Head </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Shou </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elb  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wri  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Knee </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ankl </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,24 +250,24 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Menlo Regular"/>
-      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -274,20 +275,349 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -295,9 +625,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -314,21 +886,65 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -586,33 +1202,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:M70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J23" sqref="J23:J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
   <cols>
     <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.8833333333333" customWidth="1"/>
+    <col min="5" max="5" width="14.775" customWidth="1"/>
+    <col min="6" max="6" width="19.8833333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.5583333333333" customWidth="1"/>
+    <col min="8" max="8" width="16.5583333333333" customWidth="1"/>
+    <col min="9" max="9" width="11.3333333333333" customWidth="1"/>
+    <col min="10" max="10" width="16.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" ht="13" spans="4:13">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -635,24 +1251,24 @@
         <v>6</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>63</v>
+        <v>8</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>86</v>
@@ -675,7 +1291,7 @@
       </c>
       <c r="J2">
         <f>1-(D2+E2+F2)/G2</f>
-        <v>0.55598455598455598</v>
+        <v>0.555984555984556</v>
       </c>
       <c r="K2">
         <f>H2-F2-E2</f>
@@ -686,15 +1302,15 @@
         <v>241</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>73</v>
@@ -717,7 +1333,7 @@
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J17" si="2">1-(D3+E3+F3)/G3</f>
-        <v>0.5889328063241106</v>
+        <v>0.588932806324111</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K17" si="3">H3-F3-E3</f>
@@ -728,15 +1344,15 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D4">
         <v>71</v>
@@ -759,7 +1375,7 @@
       </c>
       <c r="J4">
         <f t="shared" si="2"/>
-        <v>0.62637362637362637</v>
+        <v>0.626373626373626</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
@@ -770,15 +1386,15 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>51</v>
@@ -801,7 +1417,7 @@
       </c>
       <c r="J5">
         <f t="shared" si="2"/>
-        <v>0.6992481203007519</v>
+        <v>0.699248120300752</v>
       </c>
       <c r="K5">
         <f t="shared" si="3"/>
@@ -812,15 +1428,15 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D6">
         <v>73</v>
@@ -843,7 +1459,7 @@
       </c>
       <c r="J6">
         <f t="shared" si="2"/>
-        <v>0.61194029850746268</v>
+        <v>0.611940298507463</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
@@ -854,15 +1470,15 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7">
         <v>72</v>
@@ -885,7 +1501,7 @@
       </c>
       <c r="J7">
         <f t="shared" si="2"/>
-        <v>0.62730627306273057</v>
+        <v>0.627306273062731</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
@@ -896,15 +1512,15 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8">
         <v>96</v>
@@ -927,7 +1543,7 @@
       </c>
       <c r="J8">
         <f t="shared" si="2"/>
-        <v>0.38495575221238942</v>
+        <v>0.384955752212389</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
@@ -938,15 +1554,15 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9">
         <v>101</v>
@@ -969,7 +1585,7 @@
       </c>
       <c r="J9">
         <f t="shared" si="2"/>
-        <v>0.25423728813559321</v>
+        <v>0.254237288135593</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
@@ -980,15 +1596,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>50</v>
@@ -1011,7 +1627,7 @@
       </c>
       <c r="J10">
         <f t="shared" si="2"/>
-        <v>0.39114391143911442</v>
+        <v>0.391143911439114</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
@@ -1022,15 +1638,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11">
         <v>46</v>
@@ -1053,7 +1669,7 @@
       </c>
       <c r="J11">
         <f t="shared" si="2"/>
-        <v>0.45353159851301117</v>
+        <v>0.453531598513011</v>
       </c>
       <c r="K11">
         <f t="shared" si="3"/>
@@ -1064,15 +1680,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12">
         <v>70</v>
@@ -1095,7 +1711,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="2"/>
-        <v>0.47011952191235062</v>
+        <v>0.470119521912351</v>
       </c>
       <c r="K12">
         <f t="shared" si="3"/>
@@ -1106,15 +1722,15 @@
         <v>206</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>123</v>
@@ -1137,7 +1753,7 @@
       </c>
       <c r="J13">
         <f t="shared" si="2"/>
-        <v>0.26422764227642281</v>
+        <v>0.264227642276423</v>
       </c>
       <c r="K13">
         <f t="shared" si="3"/>
@@ -1148,15 +1764,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D14">
         <v>38</v>
@@ -1179,7 +1795,7 @@
       </c>
       <c r="J14">
         <f t="shared" si="2"/>
-        <v>0.42537313432835822</v>
+        <v>0.425373134328358</v>
       </c>
       <c r="K14">
         <f t="shared" si="3"/>
@@ -1190,15 +1806,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D15">
         <v>44</v>
@@ -1221,7 +1837,7 @@
       </c>
       <c r="J15">
         <f t="shared" si="2"/>
-        <v>0.38007380073800734</v>
+        <v>0.380073800738007</v>
       </c>
       <c r="K15">
         <f t="shared" si="3"/>
@@ -1232,15 +1848,15 @@
         <v>168</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B16">
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D16">
         <v>54</v>
@@ -1263,7 +1879,7 @@
       </c>
       <c r="J16">
         <f t="shared" si="2"/>
-        <v>0.51865671641791045</v>
+        <v>0.51865671641791</v>
       </c>
       <c r="K16">
         <f t="shared" si="3"/>
@@ -1274,7 +1890,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:11">
       <c r="D17">
         <f>SUM(D2:D16)</f>
         <v>1048</v>
@@ -1301,84 +1917,84 @@
       </c>
       <c r="J17">
         <f t="shared" si="2"/>
-        <v>0.48716632443531827</v>
+        <v>0.487166324435318</v>
       </c>
       <c r="K17">
         <f t="shared" si="3"/>
         <v>1898</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" ht="16.8" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" ht="16.8" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="14.4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" ht="16.8" spans="1:11">
       <c r="A20" s="1">
         <v>44.1</v>
       </c>
@@ -1386,7 +2002,7 @@
         <v>42.2</v>
       </c>
       <c r="C20" s="1">
-        <v>36.200000000000003</v>
+        <v>36.2</v>
       </c>
       <c r="D20" s="1">
         <v>32.5</v>
@@ -1407,18 +2023,18 @@
         <v>83.6</v>
       </c>
       <c r="J20" s="1">
-        <v>81.400000000000006</v>
+        <v>81.4</v>
       </c>
       <c r="K20" s="1">
-        <v>72.599999999999994</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+        <v>72.6</v>
+      </c>
+    </row>
+    <row r="23" ht="16.8" spans="2:13">
       <c r="B23" s="2">
         <v>0</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2">
         <v>55</v>
@@ -1441,18 +2057,18 @@
       </c>
       <c r="J23">
         <f>1-(D23+E23+F23)/G23</f>
-        <v>-0.26086956521739135</v>
+        <v>-0.260869565217391</v>
       </c>
       <c r="M23" s="2">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" ht="16.8" spans="2:10">
       <c r="B24" s="2">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2">
         <v>40</v>
@@ -1475,15 +2091,15 @@
       </c>
       <c r="J24">
         <f t="shared" ref="J24:J37" si="5">1-(D24+E24+F24)/G24</f>
-        <v>-6.1224489795918435E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.0612244897959184</v>
+      </c>
+    </row>
+    <row r="25" ht="16.8" spans="2:10">
       <c r="B25" s="2">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D25" s="2">
         <v>65</v>
@@ -1506,15 +2122,15 @@
       </c>
       <c r="J25">
         <f t="shared" si="5"/>
-        <v>4.7619047619047672E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.0476190476190477</v>
+      </c>
+    </row>
+    <row r="26" ht="16.8" spans="2:10">
       <c r="B26" s="2">
         <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2">
         <v>94</v>
@@ -1537,15 +2153,15 @@
       </c>
       <c r="J26">
         <f t="shared" si="5"/>
-        <v>-0.33557046979865768</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+        <v>-0.335570469798658</v>
+      </c>
+    </row>
+    <row r="27" ht="16.8" spans="2:10">
       <c r="B27" s="2">
         <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D27" s="2">
         <v>40</v>
@@ -1568,15 +2184,15 @@
       </c>
       <c r="J27">
         <f t="shared" si="5"/>
-        <v>0.11111111111111116</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.111111111111111</v>
+      </c>
+    </row>
+    <row r="28" ht="16.8" spans="2:10">
       <c r="B28" s="2">
         <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2">
         <v>72</v>
@@ -1599,15 +2215,15 @@
       </c>
       <c r="J28">
         <f t="shared" si="5"/>
-        <v>1.851851851851849E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.0185185185185185</v>
+      </c>
+    </row>
+    <row r="29" ht="16.8" spans="2:10">
       <c r="B29" s="2">
         <v>6</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D29" s="2">
         <v>12</v>
@@ -1630,15 +2246,15 @@
       </c>
       <c r="J29">
         <f t="shared" si="5"/>
-        <v>0.19696969696969702</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.196969696969697</v>
+      </c>
+    </row>
+    <row r="30" ht="16.8" spans="2:10">
       <c r="B30" s="2">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D30" s="2">
         <v>14</v>
@@ -1661,15 +2277,15 @@
       </c>
       <c r="J30">
         <f t="shared" si="5"/>
-        <v>0.4285714285714286</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.428571428571429</v>
+      </c>
+    </row>
+    <row r="31" ht="16.8" spans="2:10">
       <c r="B31" s="2">
         <v>8</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2">
         <v>15</v>
@@ -1695,12 +2311,12 @@
         <v>0.352112676056338</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" ht="16.8" spans="2:10">
       <c r="B32" s="2">
         <v>9</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2">
         <v>18</v>
@@ -1723,15 +2339,15 @@
       </c>
       <c r="J32">
         <f t="shared" si="5"/>
-        <v>0.43646408839779005</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.43646408839779</v>
+      </c>
+    </row>
+    <row r="33" ht="16.8" spans="2:10">
       <c r="B33" s="2">
         <v>10</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D33" s="2">
         <v>35</v>
@@ -1754,15 +2370,15 @@
       </c>
       <c r="J33">
         <f t="shared" si="5"/>
-        <v>0.33774834437086088</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.337748344370861</v>
+      </c>
+    </row>
+    <row r="34" ht="16.8" spans="2:10">
       <c r="B34" s="2">
         <v>11</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D34" s="2">
         <v>10</v>
@@ -1785,15 +2401,15 @@
       </c>
       <c r="J34">
         <f t="shared" si="5"/>
-        <v>0.48979591836734693</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.489795918367347</v>
+      </c>
+    </row>
+    <row r="35" ht="16.8" spans="2:10">
       <c r="B35" s="2">
         <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D35" s="2">
         <v>15</v>
@@ -1816,15 +2432,15 @@
       </c>
       <c r="J35">
         <f t="shared" si="5"/>
-        <v>0.15671641791044777</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.156716417910448</v>
+      </c>
+    </row>
+    <row r="36" ht="16.8" spans="2:10">
       <c r="B36" s="2">
         <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D36" s="2">
         <v>20</v>
@@ -1847,15 +2463,15 @@
       </c>
       <c r="J36">
         <f t="shared" si="5"/>
-        <v>-1.7586206896551726</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+        <v>-1.75862068965517</v>
+      </c>
+    </row>
+    <row r="37" ht="16.8" spans="2:10">
       <c r="B37" s="2">
         <v>14</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D37" s="2">
         <v>62</v>
@@ -1878,10 +2494,10 @@
       </c>
       <c r="J37">
         <f t="shared" si="5"/>
-        <v>0.11940298507462688</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.119402985074627</v>
+      </c>
+    </row>
+    <row r="42" spans="4:8">
       <c r="D42" t="s">
         <v>0</v>
       </c>
@@ -1898,12 +2514,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" ht="16.8" spans="2:10">
       <c r="B43">
         <v>0</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D43">
         <f>D2+D23</f>
@@ -1931,15 +2547,15 @@
       </c>
       <c r="J43">
         <f>1-(D43+E43+F43)/G43</f>
-        <v>0.34188034188034189</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.341880341880342</v>
+      </c>
+    </row>
+    <row r="44" ht="16.8" spans="2:10">
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D44">
         <f t="shared" ref="D44:G57" si="8">D3+D24</f>
@@ -1967,15 +2583,15 @@
       </c>
       <c r="J44">
         <f t="shared" ref="J44:J57" si="11">1-(D44+E44+F44)/G44</f>
-        <v>0.40740740740740744</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.407407407407407</v>
+      </c>
+    </row>
+    <row r="45" ht="16.8" spans="2:10">
       <c r="B45">
         <v>2</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D45">
         <f t="shared" si="8"/>
@@ -2003,15 +2619,15 @@
       </c>
       <c r="J45">
         <f t="shared" si="11"/>
-        <v>0.42380952380952386</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.423809523809524</v>
+      </c>
+    </row>
+    <row r="46" ht="16.8" spans="2:10">
       <c r="B46">
         <v>3</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D46">
         <f t="shared" si="8"/>
@@ -2039,15 +2655,15 @@
       </c>
       <c r="J46">
         <f t="shared" si="11"/>
-        <v>0.32771084337349399</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.327710843373494</v>
+      </c>
+    </row>
+    <row r="47" ht="16.8" spans="2:10">
       <c r="B47">
         <v>4</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D47">
         <f t="shared" si="8"/>
@@ -2075,15 +2691,15 @@
       </c>
       <c r="J47">
         <f t="shared" si="11"/>
-        <v>0.45974025974025978</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+        <v>0.45974025974026</v>
+      </c>
+    </row>
+    <row r="48" ht="16.8" spans="2:10">
       <c r="B48">
         <v>5</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D48">
         <f t="shared" si="8"/>
@@ -2111,15 +2727,15 @@
       </c>
       <c r="J48">
         <f t="shared" si="11"/>
-        <v>0.45382585751978888</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.453825857519789</v>
+      </c>
+    </row>
+    <row r="49" ht="16.8" spans="2:10">
       <c r="B49">
         <v>6</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D49">
         <f t="shared" si="8"/>
@@ -2147,15 +2763,15 @@
       </c>
       <c r="J49">
         <f t="shared" si="11"/>
-        <v>0.34246575342465757</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.342465753424658</v>
+      </c>
+    </row>
+    <row r="50" ht="16.8" spans="2:10">
       <c r="B50">
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D50">
         <f t="shared" si="8"/>
@@ -2183,15 +2799,15 @@
       </c>
       <c r="J50">
         <f t="shared" si="11"/>
-        <v>0.3079178885630498</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.30791788856305</v>
+      </c>
+    </row>
+    <row r="51" ht="16.8" spans="2:10">
       <c r="B51">
         <v>8</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D51">
         <f t="shared" si="8"/>
@@ -2219,15 +2835,15 @@
       </c>
       <c r="J51">
         <f t="shared" si="11"/>
-        <v>0.37772397094430987</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.37772397094431</v>
+      </c>
+    </row>
+    <row r="52" ht="16.8" spans="2:10">
       <c r="B52">
         <v>9</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D52">
         <f t="shared" si="8"/>
@@ -2255,15 +2871,15 @@
       </c>
       <c r="J52">
         <f t="shared" si="11"/>
-        <v>0.44666666666666666</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.446666666666667</v>
+      </c>
+    </row>
+    <row r="53" ht="16.8" spans="2:10">
       <c r="B53">
         <v>10</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D53">
         <f t="shared" si="8"/>
@@ -2291,15 +2907,15 @@
       </c>
       <c r="J53">
         <f t="shared" si="11"/>
-        <v>0.42039800995024879</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.420398009950249</v>
+      </c>
+    </row>
+    <row r="54" ht="16.8" spans="2:10">
       <c r="B54">
         <v>11</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D54">
         <f t="shared" si="8"/>
@@ -2327,15 +2943,15 @@
       </c>
       <c r="J54">
         <f t="shared" si="11"/>
-        <v>0.30169491525423731</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.301694915254237</v>
+      </c>
+    </row>
+    <row r="55" ht="16.8" spans="2:10">
       <c r="B55">
         <v>12</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D55">
         <f t="shared" si="8"/>
@@ -2363,15 +2979,15 @@
       </c>
       <c r="J55">
         <f t="shared" si="11"/>
-        <v>0.33582089552238803</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.335820895522388</v>
+      </c>
+    </row>
+    <row r="56" ht="16.8" spans="2:10">
       <c r="B56">
         <v>13</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D56">
         <f t="shared" si="8"/>
@@ -2399,15 +3015,15 @@
       </c>
       <c r="J56">
         <f t="shared" si="11"/>
-        <v>3.0395136778115228E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.00303951367781152</v>
+      </c>
+    </row>
+    <row r="57" ht="16.8" spans="2:10">
       <c r="B57">
         <v>14</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D57">
         <f t="shared" si="8"/>
@@ -2435,80 +3051,80 @@
       </c>
       <c r="J57">
         <f t="shared" si="11"/>
-        <v>0.38557213930348255</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>0.385572139303483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H60" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="I60" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="J60" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K60" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C61" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E61" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F61" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G61" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="I61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J61" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>24.1</v>
       </c>
@@ -2519,7 +3135,7 @@
         <v>36.4</v>
       </c>
       <c r="D62">
-        <v>32.200000000000003</v>
+        <v>32.2</v>
       </c>
       <c r="E62">
         <v>37.6</v>
@@ -2528,7 +3144,7 @@
         <v>43.4</v>
       </c>
       <c r="G62">
-        <v>39.799999999999997</v>
+        <v>39.8</v>
       </c>
       <c r="H62">
         <v>35.6</v>
@@ -2540,10 +3156,10 @@
         <v>71.2</v>
       </c>
       <c r="K62">
-        <v>70.599999999999994</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70.6</v>
+      </c>
+    </row>
+    <row r="64" spans="3:7">
       <c r="C64" s="3" t="e">
         <f>SUMPRODUCT((MOD(ROW($D$2:$D$37),21)=4)*$D2:$D$37)</f>
         <v>#VALUE!</v>
@@ -2565,7 +3181,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:6">
       <c r="C65" s="3" t="e">
         <f>SUMPRODUCT((MOD(ROW($D$2:$D$37),21)=4)*$D3:$D38)</f>
         <v>#VALUE!</v>
@@ -2579,7 +3195,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:6">
       <c r="C66" s="3" t="e">
         <f>SUMPRODUCT((MOD(ROW($D$2:$D$37),21)=4)*$D4:$D39)</f>
         <v>#VALUE!</v>
@@ -2593,7 +3209,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:6">
       <c r="C67" s="3" t="e">
         <f>SUMPRODUCT((MOD(ROW($D$2:$D$37),21)=4)*$D5:$D40)</f>
         <v>#VALUE!</v>
@@ -2607,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:6">
       <c r="C68" s="3" t="e">
         <f>SUMPRODUCT((MOD(ROW($D$2:$D$37),21)=4)*$D6:$D41)</f>
         <v>#VALUE!</v>
@@ -2617,21 +3233,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:6">
       <c r="F69" s="3">
         <f ca="1">OFFSET(D7,(ROW(4:4)-1)*17,,)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:6">
       <c r="F70" s="3">
         <f ca="1">OFFSET(D8,(ROW(5:5)-1)*17,,)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
+  <headerFooter/>
 </worksheet>
 </file>